--- a/hmo.xlsx
+++ b/hmo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.egbugha\Documents\project\hmsbackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9A9E8E5-7118-4A39-8C30-38A11405086E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F9D326-AC56-4277-A226-0A510F68A745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AFB096E-6ED7-492B-B5D2-62668278324A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>title</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>anselemm</t>
+  </si>
+  <si>
+    <t>HMOId</t>
   </si>
 </sst>
 </file>
@@ -997,13 +1000,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C053D6-3622-481A-BA9C-ECE85F16E374}">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1073,8 +1078,11 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1096,8 +1104,11 @@
       <c r="W2" t="s">
         <v>28</v>
       </c>
+      <c r="X2">
+        <v>234556</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1119,8 +1130,11 @@
       <c r="W3" t="s">
         <v>28</v>
       </c>
+      <c r="X3">
+        <v>234556</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="W4" t="s">
         <v>28</v>
       </c>
+      <c r="X4">
+        <v>234556</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1165,8 +1182,11 @@
       <c r="W5" t="s">
         <v>28</v>
       </c>
+      <c r="X5">
+        <v>234556</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1188,8 +1208,11 @@
       <c r="W6" t="s">
         <v>28</v>
       </c>
+      <c r="X6">
+        <v>234556</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="W7" t="s">
         <v>28</v>
       </c>
+      <c r="X7">
+        <v>234556</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1234,8 +1260,11 @@
       <c r="W8" t="s">
         <v>28</v>
       </c>
+      <c r="X8">
+        <v>234556</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1256,6 +1285,9 @@
       </c>
       <c r="W9" t="s">
         <v>28</v>
+      </c>
+      <c r="X9">
+        <v>234556</v>
       </c>
     </row>
   </sheetData>

--- a/hmo.xlsx
+++ b/hmo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.egbugha\Documents\project\hmsbackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F9D326-AC56-4277-A226-0A510F68A745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C570B9D-E7A5-4A61-BD83-8A8F0F23DCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AFB096E-6ED7-492B-B5D2-62668278324A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>title</t>
   </si>
@@ -110,33 +110,6 @@
   </si>
   <si>
     <t>mall</t>
-  </si>
-  <si>
-    <t>malll</t>
-  </si>
-  <si>
-    <t>malllll</t>
-  </si>
-  <si>
-    <t>mala</t>
-  </si>
-  <si>
-    <t>malaa</t>
-  </si>
-  <si>
-    <t>malaaa</t>
-  </si>
-  <si>
-    <t>Mrs</t>
-  </si>
-  <si>
-    <t>malaaaa</t>
-  </si>
-  <si>
-    <t>FeMale</t>
-  </si>
-  <si>
-    <t>anselemm</t>
   </si>
   <si>
     <t>HMOId</t>
@@ -1000,13 +973,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C053D6-3622-481A-BA9C-ECE85F16E374}">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="17.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1079,7 +1055,7 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
@@ -1105,7 +1081,7 @@
         <v>28</v>
       </c>
       <c r="X2">
-        <v>234556</v>
+        <v>895989</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -1131,163 +1107,7 @@
         <v>28</v>
       </c>
       <c r="X3">
-        <v>234556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4">
-        <v>8078342369</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W4" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4">
-        <v>234556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5">
-        <v>8078342364</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5">
-        <v>234556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6">
-        <v>8078342365</v>
-      </c>
-      <c r="P6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W6" t="s">
-        <v>28</v>
-      </c>
-      <c r="X6">
-        <v>234556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7">
-        <v>8078342361</v>
-      </c>
-      <c r="P7" t="s">
-        <v>27</v>
-      </c>
-      <c r="W7" t="s">
-        <v>28</v>
-      </c>
-      <c r="X7">
-        <v>234556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8">
-        <v>8078342366</v>
-      </c>
-      <c r="P8" t="s">
-        <v>27</v>
-      </c>
-      <c r="W8" t="s">
-        <v>28</v>
-      </c>
-      <c r="X8">
-        <v>234556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9">
-        <v>8078342363</v>
-      </c>
-      <c r="P9" t="s">
-        <v>38</v>
-      </c>
-      <c r="W9" t="s">
-        <v>28</v>
-      </c>
-      <c r="X9">
-        <v>234556</v>
+        <v>234567</v>
       </c>
     </row>
   </sheetData>
